--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>109.2519978718306</v>
+        <v>360.1285223939996</v>
       </c>
       <c r="R2">
-        <v>983.267980846475</v>
+        <v>3241.156701545995</v>
       </c>
       <c r="S2">
-        <v>0.009963739497118995</v>
+        <v>0.01934806064902481</v>
       </c>
       <c r="T2">
-        <v>0.009963739497118995</v>
+        <v>0.01934806064902481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>386.4902540770445</v>
+        <v>769.8262565539779</v>
       </c>
       <c r="R3">
-        <v>3478.412286693401</v>
+        <v>6928.436308985802</v>
       </c>
       <c r="S3">
-        <v>0.035247760085053</v>
+        <v>0.04135924864269034</v>
       </c>
       <c r="T3">
-        <v>0.035247760085053</v>
+        <v>0.04135924864269033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>151.1418834271922</v>
+        <v>495.4559087052857</v>
       </c>
       <c r="R4">
-        <v>1360.27695084473</v>
+        <v>4459.103178347571</v>
       </c>
       <c r="S4">
-        <v>0.01378408068417356</v>
+        <v>0.02661858301814778</v>
       </c>
       <c r="T4">
-        <v>0.01378408068417356</v>
+        <v>0.02661858301814778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>40.17569857316556</v>
+        <v>71.85284854356223</v>
       </c>
       <c r="R5">
-        <v>361.5812871584901</v>
+        <v>646.6756368920601</v>
       </c>
       <c r="S5">
-        <v>0.003664008004388266</v>
+        <v>0.003860325369910773</v>
       </c>
       <c r="T5">
-        <v>0.003664008004388265</v>
+        <v>0.003860325369910773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>113.43350486291</v>
+        <v>272.6157409714078</v>
       </c>
       <c r="R6">
-        <v>1020.90154376619</v>
+        <v>2453.54166874267</v>
       </c>
       <c r="S6">
-        <v>0.01034509130007069</v>
+        <v>0.01464639861105742</v>
       </c>
       <c r="T6">
-        <v>0.01034509130007069</v>
+        <v>0.01464639861105742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H7">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I7">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J7">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>111.8454553553711</v>
+        <v>347.4682853014061</v>
       </c>
       <c r="R7">
-        <v>1006.60909819834</v>
+        <v>3127.214567712655</v>
       </c>
       <c r="S7">
-        <v>0.01020026180578347</v>
+        <v>0.01866788393469464</v>
       </c>
       <c r="T7">
-        <v>0.01020026180578347</v>
+        <v>0.01866788393469464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>11.03410592265778</v>
+        <v>18.26043452088356</v>
       </c>
       <c r="R8">
-        <v>99.30695330392</v>
+        <v>164.343910687952</v>
       </c>
       <c r="S8">
-        <v>0.001006306146693607</v>
+        <v>0.0009810497436830851</v>
       </c>
       <c r="T8">
-        <v>0.001006306146693607</v>
+        <v>0.0009810497436830851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>39.03429213774223</v>
       </c>
       <c r="R9">
-        <v>351.3086292396801</v>
+        <v>351.30862923968</v>
       </c>
       <c r="S9">
-        <v>0.003559912183676271</v>
+        <v>0.002097134230447093</v>
       </c>
       <c r="T9">
-        <v>0.003559912183676271</v>
+        <v>0.002097134230447093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
         <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>15.26485175165511</v>
+        <v>25.12225390745245</v>
       </c>
       <c r="R10">
-        <v>137.383665764896</v>
+        <v>226.100285167072</v>
       </c>
       <c r="S10">
-        <v>0.001392148512414967</v>
+        <v>0.001349703958493484</v>
       </c>
       <c r="T10">
-        <v>0.001392148512414968</v>
+        <v>0.001349703958493484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
         <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>4.057618370449778</v>
+        <v>3.643322187441778</v>
       </c>
       <c r="R11">
-        <v>36.51856533404801</v>
+        <v>32.78989968697601</v>
       </c>
       <c r="S11">
-        <v>0.0003700532091808113</v>
+        <v>0.0001957390605386156</v>
       </c>
       <c r="T11">
-        <v>0.0003700532091808113</v>
+        <v>0.0001957390605386157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
         <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>11.456424891232</v>
+        <v>13.82307031467022</v>
       </c>
       <c r="R12">
-        <v>103.107824021088</v>
+        <v>124.407632832032</v>
       </c>
       <c r="S12">
-        <v>0.001044821471534641</v>
+        <v>0.0007426504322014519</v>
       </c>
       <c r="T12">
-        <v>0.001044821471534641</v>
+        <v>0.0007426504322014519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
         <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>11.29603691830756</v>
+        <v>17.61849305812089</v>
       </c>
       <c r="R13">
-        <v>101.664332264768</v>
+        <v>158.566437523088</v>
       </c>
       <c r="S13">
-        <v>0.001030194151102799</v>
+        <v>0.0009465611609068857</v>
       </c>
       <c r="T13">
-        <v>0.0010301941511028</v>
+        <v>0.0009465611609068857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>151.8077575130939</v>
+        <v>314.6582790479032</v>
       </c>
       <c r="R14">
-        <v>1366.269817617845</v>
+        <v>2831.924511431128</v>
       </c>
       <c r="S14">
-        <v>0.01384480814050428</v>
+        <v>0.01690515215586279</v>
       </c>
       <c r="T14">
-        <v>0.01384480814050428</v>
+        <v>0.01690515215586279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>537.0356598964312</v>
+        <v>672.6271039097245</v>
       </c>
       <c r="R15">
-        <v>4833.32093906788</v>
+        <v>6053.643935187521</v>
       </c>
       <c r="S15">
-        <v>0.04897744224456971</v>
+        <v>0.03613718212073531</v>
       </c>
       <c r="T15">
-        <v>0.04897744224456971</v>
+        <v>0.03613718212073531</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>210.0145611644095</v>
+        <v>432.8990732002009</v>
       </c>
       <c r="R16">
-        <v>1890.131050479686</v>
+        <v>3896.091658801808</v>
       </c>
       <c r="S16">
-        <v>0.01915324587930008</v>
+        <v>0.023257689969973</v>
       </c>
       <c r="T16">
-        <v>0.01915324587930009</v>
+        <v>0.023257689969973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H17">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>55.82490778859089</v>
+        <v>62.78062486445156</v>
       </c>
       <c r="R17">
-        <v>502.424170097318</v>
+        <v>565.0256237800641</v>
       </c>
       <c r="S17">
-        <v>0.005091209767246054</v>
+        <v>0.003372916228312948</v>
       </c>
       <c r="T17">
-        <v>0.005091209767246054</v>
+        <v>0.003372916228312949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H18">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>157.618042100162</v>
+        <v>238.1949625239164</v>
       </c>
       <c r="R18">
-        <v>1418.562378901458</v>
+        <v>2143.754662715248</v>
       </c>
       <c r="S18">
-        <v>0.01437470382348839</v>
+        <v>0.01279712739932014</v>
       </c>
       <c r="T18">
-        <v>0.01437470382348839</v>
+        <v>0.01279712739932014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H19">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>155.4114166905098</v>
+        <v>303.5965381188257</v>
       </c>
       <c r="R19">
-        <v>1398.702750214588</v>
+        <v>2732.368843069432</v>
       </c>
       <c r="S19">
-        <v>0.01417346044874214</v>
+        <v>0.0163108553393906</v>
       </c>
       <c r="T19">
-        <v>0.01417346044874214</v>
+        <v>0.0163108553393906</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>94.78354716814665</v>
+        <v>157.3995789134309</v>
       </c>
       <c r="R20">
-        <v>853.0519245133198</v>
+        <v>1416.596210220878</v>
       </c>
       <c r="S20">
-        <v>0.008644222448949896</v>
+        <v>0.008456360464601652</v>
       </c>
       <c r="T20">
-        <v>0.008644222448949896</v>
+        <v>0.008456360464601652</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>335.3066116952534</v>
+        <v>336.4641262308356</v>
       </c>
       <c r="R21">
-        <v>3017.75950525728</v>
+        <v>3028.17713607752</v>
       </c>
       <c r="S21">
-        <v>0.03057983190854356</v>
+        <v>0.01807668072847933</v>
       </c>
       <c r="T21">
-        <v>0.03057983190854356</v>
+        <v>0.01807668072847933</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H22">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>131.1258751872907</v>
+        <v>216.5464453689231</v>
       </c>
       <c r="R22">
-        <v>1180.132876685616</v>
+        <v>1948.918008320308</v>
       </c>
       <c r="S22">
-        <v>0.01195862855735264</v>
+        <v>0.01163405145051203</v>
       </c>
       <c r="T22">
-        <v>0.01195862855735265</v>
+        <v>0.01163405145051203</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>34.85515409237866</v>
+        <v>31.40436650034045</v>
       </c>
       <c r="R23">
-        <v>313.696386831408</v>
+        <v>282.639298503064</v>
       </c>
       <c r="S23">
-        <v>0.003178776427647795</v>
+        <v>0.001687213175045405</v>
       </c>
       <c r="T23">
-        <v>0.003178776427647795</v>
+        <v>0.001687213175045405</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H24">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>98.41128920347199</v>
+        <v>119.1508035765276</v>
       </c>
       <c r="R24">
-        <v>885.701602831248</v>
+        <v>1072.357232188748</v>
       </c>
       <c r="S24">
-        <v>0.00897507110441462</v>
+        <v>0.006401428464076328</v>
       </c>
       <c r="T24">
-        <v>0.00897507110441462</v>
+        <v>0.006401428464076328</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H25">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>97.03354812472533</v>
+        <v>151.8662321680202</v>
       </c>
       <c r="R25">
-        <v>873.301933122528</v>
+        <v>1366.796089512182</v>
       </c>
       <c r="S25">
-        <v>0.008849421656619479</v>
+        <v>0.008159079017104524</v>
       </c>
       <c r="T25">
-        <v>0.008849421656619479</v>
+        <v>0.008159079017104522</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H26">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>787.9849901586961</v>
+        <v>1758.784671964743</v>
       </c>
       <c r="R26">
-        <v>7091.864911428265</v>
+        <v>15829.06204768269</v>
       </c>
       <c r="S26">
-        <v>0.07186392306337391</v>
+        <v>0.09449146731154903</v>
       </c>
       <c r="T26">
-        <v>0.07186392306337393</v>
+        <v>0.09449146731154903</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H27">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>2787.578488153729</v>
+        <v>3759.653945492916</v>
       </c>
       <c r="R27">
-        <v>25088.20639338356</v>
+        <v>33836.88550943624</v>
       </c>
       <c r="S27">
-        <v>0.2542260683994135</v>
+        <v>0.2019890345623854</v>
       </c>
       <c r="T27">
-        <v>0.2542260683994135</v>
+        <v>0.2019890345623854</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H28">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>1090.117689789643</v>
+        <v>2419.692425560955</v>
       </c>
       <c r="R28">
-        <v>9811.059208106783</v>
+        <v>21777.2318300486</v>
       </c>
       <c r="S28">
-        <v>0.09941830715999868</v>
+        <v>0.1299990222671665</v>
       </c>
       <c r="T28">
-        <v>0.09941830715999869</v>
+        <v>0.1299990222671665</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H29">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>289.7690482688852</v>
+        <v>350.9127458589965</v>
       </c>
       <c r="R29">
-        <v>2607.921434419966</v>
+        <v>3158.214712730968</v>
       </c>
       <c r="S29">
-        <v>0.02642682392560347</v>
+        <v>0.01885293906814647</v>
       </c>
       <c r="T29">
-        <v>0.02642682392560347</v>
+        <v>0.01885293906814647</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>818.1442989987941</v>
+        <v>1331.392424486319</v>
       </c>
       <c r="R30">
-        <v>7363.298690989147</v>
+        <v>11982.53182037688</v>
       </c>
       <c r="S30">
-        <v>0.07461444023971359</v>
+        <v>0.07152963393560607</v>
       </c>
       <c r="T30">
-        <v>0.07461444023971359</v>
+        <v>0.07152963393560607</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H31">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>806.6904198941063</v>
+        <v>1696.954992954948</v>
       </c>
       <c r="R31">
-        <v>7260.213779046957</v>
+        <v>15272.59493659453</v>
       </c>
       <c r="S31">
-        <v>0.07356985094291658</v>
+        <v>0.09116964106063505</v>
       </c>
       <c r="T31">
-        <v>0.07356985094291658</v>
+        <v>0.09116964106063505</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H32">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>158.1845918964961</v>
+        <v>283.355464549971</v>
       </c>
       <c r="R32">
-        <v>1423.661327068465</v>
+        <v>2550.199180949739</v>
       </c>
       <c r="S32">
-        <v>0.01442637294343841</v>
+        <v>0.01522339490607586</v>
       </c>
       <c r="T32">
-        <v>0.01442637294343841</v>
+        <v>0.01522339490607586</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H33">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>559.594371764929</v>
+        <v>605.7128580056401</v>
       </c>
       <c r="R33">
-        <v>5036.34934588436</v>
+        <v>5451.41572205076</v>
       </c>
       <c r="S33">
-        <v>0.05103478794832488</v>
+        <v>0.03254218531395765</v>
       </c>
       <c r="T33">
-        <v>0.05103478794832488</v>
+        <v>0.03254218531395765</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H34">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>218.8364296682824</v>
+        <v>389.833435691106</v>
       </c>
       <c r="R34">
-        <v>1969.527867014542</v>
+        <v>3508.500921219954</v>
       </c>
       <c r="S34">
-        <v>0.01995779683820838</v>
+        <v>0.02094396996558167</v>
       </c>
       <c r="T34">
-        <v>0.01995779683820838</v>
+        <v>0.02094396996558167</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H35">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>58.16988802720512</v>
+        <v>56.53508681554801</v>
       </c>
       <c r="R35">
-        <v>523.528992244846</v>
+        <v>508.8157813399321</v>
       </c>
       <c r="S35">
-        <v>0.005305071048307976</v>
+        <v>0.003037371994957907</v>
       </c>
       <c r="T35">
-        <v>0.005305071048307976</v>
+        <v>0.003037371994957908</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H36">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>164.238943210714</v>
+        <v>214.498866718686</v>
       </c>
       <c r="R36">
-        <v>1478.150488896426</v>
+        <v>1930.489800468174</v>
       </c>
       <c r="S36">
-        <v>0.01497852741652802</v>
+        <v>0.01152404440179209</v>
       </c>
       <c r="T36">
-        <v>0.01497852741652802</v>
+        <v>0.01152404440179209</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>161.9396263272263</v>
+        <v>273.394167014199</v>
       </c>
       <c r="R37">
-        <v>1457.456636945036</v>
+        <v>2460.547503127791</v>
       </c>
       <c r="S37">
-        <v>0.01476883061560291</v>
+        <v>0.01468821988693578</v>
       </c>
       <c r="T37">
-        <v>0.01476883061560291</v>
+        <v>0.01468821988693578</v>
       </c>
     </row>
   </sheetData>
